--- a/eclipse/ranks/definition_2/layer2_ranks_fc.xlsx
+++ b/eclipse/ranks/definition_2/layer2_ranks_fc.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C384"/>
+  <dimension ref="A1:C556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,11 +382,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15423</v>
+        <v>8129</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.15668</t>
+          <t>0.07569</t>
         </is>
       </c>
     </row>
@@ -397,11 +397,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12828</v>
+        <v>10088</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.15407</t>
+          <t>0.07459</t>
         </is>
       </c>
     </row>
@@ -412,11 +412,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>590</v>
+        <v>8759</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.15362</t>
+          <t>0.07443</t>
         </is>
       </c>
     </row>
@@ -427,11 +427,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>8126</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.15297</t>
+          <t>0.07439</t>
         </is>
       </c>
     </row>
@@ -442,11 +442,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17720</v>
+        <v>580</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.15164</t>
+          <t>0.07400</t>
         </is>
       </c>
     </row>
@@ -457,11 +457,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238</v>
+        <v>9042</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.15072</t>
+          <t>0.07360</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.14930</t>
+          <t>0.07304</t>
         </is>
       </c>
     </row>
@@ -487,11 +487,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27609</v>
+        <v>2098</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.14705</t>
+          <t>0.07278</t>
         </is>
       </c>
     </row>
@@ -502,11 +502,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.14687</t>
+          <t>0.07259</t>
         </is>
       </c>
     </row>
@@ -517,11 +517,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14048</v>
+        <v>9514</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.14664</t>
+          <t>0.07231</t>
         </is>
       </c>
     </row>
@@ -532,11 +532,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14845</v>
+        <v>225</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.14625</t>
+          <t>0.07186</t>
         </is>
       </c>
     </row>
@@ -547,11 +547,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8514</v>
+        <v>581</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.14337</t>
+          <t>0.07164</t>
         </is>
       </c>
     </row>
@@ -562,11 +562,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14908</v>
+        <v>550</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.14283</t>
+          <t>0.07156</t>
         </is>
       </c>
     </row>
@@ -577,11 +577,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57661</v>
+        <v>58</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.14173</t>
+          <t>0.07123</t>
         </is>
       </c>
     </row>
@@ -592,11 +592,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>628</v>
+        <v>1961</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.14022</t>
+          <t>0.07122</t>
         </is>
       </c>
     </row>
@@ -607,11 +607,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2478</v>
+        <v>354</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.13999</t>
+          <t>0.07119</t>
         </is>
       </c>
     </row>
@@ -622,11 +622,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16021</v>
+        <v>39</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.13989</t>
+          <t>0.07108</t>
         </is>
       </c>
     </row>
@@ -637,11 +637,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.13975</t>
+          <t>0.07085</t>
         </is>
       </c>
     </row>
@@ -652,11 +652,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>882</v>
+        <v>57</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.13966</t>
+          <t>0.07080</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.13937</t>
+          <t>0.07077</t>
         </is>
       </c>
     </row>
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27796</v>
+        <v>2699</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.13910</t>
+          <t>0.07060</t>
         </is>
       </c>
     </row>
@@ -697,11 +697,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5892</v>
+        <v>54</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.13865</t>
+          <t>0.07060</t>
         </is>
       </c>
     </row>
@@ -712,11 +712,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4440</v>
+        <v>60</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.13865</t>
+          <t>0.07045</t>
         </is>
       </c>
     </row>
@@ -727,11 +727,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77339</v>
+        <v>3722</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.07035</t>
         </is>
       </c>
     </row>
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67243</v>
+        <v>1194</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.07035</t>
         </is>
       </c>
     </row>
@@ -757,11 +757,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61325</v>
+        <v>20</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.07031</t>
         </is>
       </c>
     </row>
@@ -772,11 +772,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>58348</v>
+        <v>61</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.07029</t>
         </is>
       </c>
     </row>
@@ -787,11 +787,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>52151</v>
+        <v>296</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.07012</t>
         </is>
       </c>
     </row>
@@ -802,11 +802,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49445</v>
+        <v>1555</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06994</t>
         </is>
       </c>
     </row>
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>45644</v>
+        <v>1001</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06985</t>
         </is>
       </c>
     </row>
@@ -832,11 +832,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38817</v>
+        <v>65</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06984</t>
         </is>
       </c>
     </row>
@@ -847,11 +847,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35700</v>
+        <v>698</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06979</t>
         </is>
       </c>
     </row>
@@ -862,11 +862,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35074</v>
+        <v>14690</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06976</t>
         </is>
       </c>
     </row>
@@ -877,11 +877,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34257</v>
+        <v>46</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06962</t>
         </is>
       </c>
     </row>
@@ -892,11 +892,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32503</v>
+        <v>55</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06960</t>
         </is>
       </c>
     </row>
@@ -907,11 +907,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31741</v>
+        <v>8826</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06950</t>
         </is>
       </c>
     </row>
@@ -922,11 +922,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30679</v>
+        <v>18</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06940</t>
         </is>
       </c>
     </row>
@@ -937,11 +937,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29915</v>
+        <v>1069</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06937</t>
         </is>
       </c>
     </row>
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>23004</v>
+        <v>53</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06937</t>
         </is>
       </c>
     </row>
@@ -967,11 +967,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18045</v>
+        <v>12828</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06936</t>
         </is>
       </c>
     </row>
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17816</v>
+        <v>1269</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06936</t>
         </is>
       </c>
     </row>
@@ -997,11 +997,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10749</v>
+        <v>1976</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06933</t>
         </is>
       </c>
     </row>
@@ -1012,11 +1012,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8702</v>
+        <v>67</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06933</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6816</v>
+        <v>9</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06933</t>
         </is>
       </c>
     </row>
@@ -1042,11 +1042,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6596</v>
+        <v>481</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06931</t>
         </is>
       </c>
     </row>
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4807</v>
+        <v>1134</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06924</t>
         </is>
       </c>
     </row>
@@ -1072,11 +1072,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06919</t>
         </is>
       </c>
     </row>
@@ -1087,11 +1087,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.13803</t>
+          <t>0.06915</t>
         </is>
       </c>
     </row>
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17650</v>
+        <v>10577</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.05304</t>
+          <t>0.06913</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1117,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>13212</v>
+        <v>5284</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.05245</t>
+          <t>0.06913</t>
         </is>
       </c>
     </row>
@@ -1132,11 +1132,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8130</v>
+        <v>3472</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.04733</t>
+          <t>0.06908</t>
         </is>
       </c>
     </row>
@@ -1147,11 +1147,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>583</v>
+        <v>709</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.03752</t>
+          <t>0.06908</t>
         </is>
       </c>
     </row>
@@ -1162,11 +1162,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>30224</v>
+        <v>348</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.03534</t>
+          <t>0.06908</t>
         </is>
       </c>
     </row>
@@ -1177,11 +1177,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>23923</v>
+        <v>38</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.03534</t>
+          <t>0.06908</t>
         </is>
       </c>
     </row>
@@ -1192,11 +1192,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>63204</v>
+        <v>35</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.03526</t>
+          <t>0.06908</t>
         </is>
       </c>
     </row>
@@ -1207,11 +1207,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9957</v>
+        <v>166</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.03516</t>
+          <t>0.06896</t>
         </is>
       </c>
     </row>
@@ -1222,11 +1222,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>13001</v>
+        <v>539</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.03452</t>
+          <t>0.06893</t>
         </is>
       </c>
     </row>
@@ -1237,11 +1237,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2253</v>
+        <v>569</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.03361</t>
+          <t>0.06880</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>48376</v>
+        <v>1629</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.03061</t>
+          <t>0.06869</t>
         </is>
       </c>
     </row>
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>26380</v>
+        <v>7523</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.03040</t>
+          <t>0.06866</t>
         </is>
       </c>
     </row>
@@ -1282,11 +1282,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>18181</v>
+        <v>51</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.02999</t>
+          <t>0.06854</t>
         </is>
       </c>
     </row>
@@ -1297,11 +1297,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>40370</v>
+        <v>21</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.02947</t>
+          <t>0.06840</t>
         </is>
       </c>
     </row>
@@ -1312,11 +1312,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>35345</v>
+        <v>11</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.02947</t>
+          <t>0.06827</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>31122</v>
+        <v>24</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.02947</t>
+          <t>0.06820</t>
         </is>
       </c>
     </row>
@@ -1342,11 +1342,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>23809</v>
+        <v>8</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.02947</t>
+          <t>0.06795</t>
         </is>
       </c>
     </row>
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>12746</v>
+        <v>4438</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.02947</t>
+          <t>0.06791</t>
         </is>
       </c>
     </row>
@@ -1372,11 +1372,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1760</v>
+        <v>32</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.02632</t>
+          <t>0.06777</t>
         </is>
       </c>
     </row>
@@ -1387,11 +1387,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>31345</v>
+        <v>36</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.02282</t>
+          <t>0.06770</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>24952</v>
+        <v>48</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.02176</t>
+          <t>0.06766</t>
         </is>
       </c>
     </row>
@@ -1417,11 +1417,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>15805</v>
+        <v>1760</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.02160</t>
+          <t>0.06764</t>
         </is>
       </c>
     </row>
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2124</v>
+        <v>2518</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.02097</t>
+          <t>0.06761</t>
         </is>
       </c>
     </row>
@@ -1447,11 +1447,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>8586</v>
+        <v>13</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.02057</t>
+          <t>0.06758</t>
         </is>
       </c>
     </row>
@@ -1462,11 +1462,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>28237</v>
+        <v>4331</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.02053</t>
+          <t>0.06739</t>
         </is>
       </c>
     </row>
@@ -1477,11 +1477,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>40180</v>
+        <v>4502</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.02038</t>
+          <t>0.06730</t>
         </is>
       </c>
     </row>
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>75534</v>
+        <v>1474</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.02036</t>
+          <t>0.06730</t>
         </is>
       </c>
     </row>
@@ -1507,11 +1507,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>37140</v>
+        <v>590</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.02034</t>
+          <t>0.06725</t>
         </is>
       </c>
     </row>
@@ -1522,11 +1522,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>33814</v>
+        <v>29</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.02034</t>
+          <t>0.06725</t>
         </is>
       </c>
     </row>
@@ -1537,11 +1537,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2737</v>
+        <v>31</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.01883</t>
+          <t>0.06722</t>
         </is>
       </c>
     </row>
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>67135</v>
+        <v>1073</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.01882</t>
+          <t>0.06714</t>
         </is>
       </c>
     </row>
@@ -1567,11 +1567,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>54695</v>
+        <v>2184</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.01882</t>
+          <t>0.06713</t>
         </is>
       </c>
     </row>
@@ -1582,11 +1582,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>54003</v>
+        <v>501</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.01882</t>
+          <t>0.06707</t>
         </is>
       </c>
     </row>
@@ -1597,11 +1597,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>43803</v>
+        <v>59</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.01882</t>
+          <t>0.06705</t>
         </is>
       </c>
     </row>
@@ -1612,11 +1612,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1949</v>
+        <v>3867</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.01882</t>
+          <t>0.06693</t>
         </is>
       </c>
     </row>
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>25405</v>
+        <v>2253</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.01828</t>
+          <t>0.06692</t>
         </is>
       </c>
     </row>
@@ -1642,11 +1642,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>78761</v>
+        <v>5590</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.01766</t>
+          <t>0.06691</t>
         </is>
       </c>
     </row>
@@ -1657,11 +1657,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>20799</v>
+        <v>1068</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.01723</t>
+          <t>0.06690</t>
         </is>
       </c>
     </row>
@@ -1672,11 +1672,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9681</v>
+        <v>30</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.01670</t>
+          <t>0.06689</t>
         </is>
       </c>
     </row>
@@ -1687,11 +1687,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>481</v>
+        <v>23</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.01622</t>
+          <t>0.06689</t>
         </is>
       </c>
     </row>
@@ -1702,11 +1702,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1555</v>
+        <v>4898</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.01557</t>
+          <t>0.06688</t>
         </is>
       </c>
     </row>
@@ -1717,11 +1717,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7919</v>
+        <v>12803</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.01522</t>
+          <t>0.06686</t>
         </is>
       </c>
     </row>
@@ -1732,11 +1732,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5470</v>
+        <v>475</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.01522</t>
+          <t>0.06685</t>
         </is>
       </c>
     </row>
@@ -1747,11 +1747,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>10577</v>
+        <v>56</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.01430</t>
+          <t>0.06685</t>
         </is>
       </c>
     </row>
@@ -1762,11 +1762,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>17391</v>
+        <v>37</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.01404</t>
+          <t>0.06684</t>
         </is>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>9838</v>
+        <v>10</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.01319</t>
+          <t>0.06675</t>
         </is>
       </c>
     </row>
@@ -1792,11 +1792,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>37475</v>
+        <v>2478</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.01311</t>
+          <t>0.06669</t>
         </is>
       </c>
     </row>
@@ -1807,11 +1807,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>56324</v>
+        <v>583</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.01303</t>
+          <t>0.06667</t>
         </is>
       </c>
     </row>
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>39704</v>
+        <v>50</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.01303</t>
+          <t>0.06665</t>
         </is>
       </c>
     </row>
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>22322</v>
+        <v>7920</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.01303</t>
+          <t>0.06664</t>
         </is>
       </c>
     </row>
@@ -1852,11 +1852,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>21614</v>
+        <v>7389</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.01303</t>
+          <t>0.06662</t>
         </is>
       </c>
     </row>
@@ -1867,11 +1867,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>10319</v>
+        <v>15</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.01303</t>
+          <t>0.06658</t>
         </is>
       </c>
     </row>
@@ -1882,11 +1882,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>35</v>
+        <v>408</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.01303</t>
+          <t>0.06657</t>
         </is>
       </c>
     </row>
@@ -1897,11 +1897,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>18</v>
+        <v>469</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.01303</t>
+          <t>0.06656</t>
         </is>
       </c>
     </row>
@@ -1912,11 +1912,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>18442</v>
+        <v>64</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.01146</t>
+          <t>0.06653</t>
         </is>
       </c>
     </row>
@@ -1927,11 +1927,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>36619</v>
+        <v>5240</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.01145</t>
+          <t>0.06638</t>
         </is>
       </c>
     </row>
@@ -1942,11 +1942,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1148</v>
+        <v>2981</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.01145</t>
+          <t>0.06635</t>
         </is>
       </c>
     </row>
@@ -1957,11 +1957,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>26657</v>
+        <v>1174</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.01070</t>
+          <t>0.06635</t>
         </is>
       </c>
     </row>
@@ -1972,11 +1972,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>17212</v>
+        <v>7773</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.01069</t>
+          <t>0.06626</t>
         </is>
       </c>
     </row>
@@ -1987,11 +1987,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>19846</v>
+        <v>7238</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.01015</t>
+          <t>0.06626</t>
         </is>
       </c>
     </row>
@@ -2002,11 +2002,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>70287</v>
+        <v>96</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.00904</t>
+          <t>0.06626</t>
         </is>
       </c>
     </row>
@@ -2017,11 +2017,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>36958</v>
+        <v>313</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.00872</t>
+          <t>0.06625</t>
         </is>
       </c>
     </row>
@@ -2032,11 +2032,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>16781</v>
+        <v>40</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.00872</t>
+          <t>0.06624</t>
         </is>
       </c>
     </row>
@@ -2047,11 +2047,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>455</v>
+        <v>25</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.00872</t>
+          <t>0.06624</t>
         </is>
       </c>
     </row>
@@ -2062,11 +2062,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>27988</v>
+        <v>14</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.00862</t>
+          <t>0.06624</t>
         </is>
       </c>
     </row>
@@ -2077,11 +2077,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>56831</v>
+        <v>2209</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.00858</t>
+          <t>0.06621</t>
         </is>
       </c>
     </row>
@@ -2092,11 +2092,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>48055</v>
+        <v>396</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.00856</t>
+          <t>0.06608</t>
         </is>
       </c>
     </row>
@@ -2107,11 +2107,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>18581</v>
+        <v>5923</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.00848</t>
+          <t>0.06607</t>
         </is>
       </c>
     </row>
@@ -2122,11 +2122,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>31807</v>
+        <v>1263</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.00847</t>
+          <t>0.06607</t>
         </is>
       </c>
     </row>
@@ -2137,11 +2137,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>17801</v>
+        <v>664</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.00817</t>
+          <t>0.06606</t>
         </is>
       </c>
     </row>
@@ -2152,11 +2152,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>15839</v>
+        <v>2273</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.00811</t>
+          <t>0.06604</t>
         </is>
       </c>
     </row>
@@ -2167,11 +2167,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>10176</v>
+        <v>2723</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.00808</t>
+          <t>0.06595</t>
         </is>
       </c>
     </row>
@@ -2182,11 +2182,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>550</v>
+        <v>10749</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.00807</t>
+          <t>0.06593</t>
         </is>
       </c>
     </row>
@@ -2197,11 +2197,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1016</v>
+        <v>3481</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.00788</t>
+          <t>0.06593</t>
         </is>
       </c>
     </row>
@@ -2212,11 +2212,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1564</v>
+        <v>17212</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.00778</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2227,11 +2227,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>56428</v>
+        <v>13523</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.00771</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2242,11 +2242,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>15232</v>
+        <v>13396</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.00766</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2257,11 +2257,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>26550</v>
+        <v>12020</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.00761</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2272,11 +2272,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>29174</v>
+        <v>11851</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.00749</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2287,11 +2287,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7565</v>
+        <v>10431</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.00741</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>23673</v>
+        <v>9813</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.00732</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2317,11 +2317,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>8525</v>
+        <v>9429</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.00654</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2332,11 +2332,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>27833</v>
+        <v>8710</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.00652</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2347,11 +2347,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>27725</v>
+        <v>8707</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.00652</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2362,11 +2362,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>39763</v>
+        <v>8338</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.00641</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2377,11 +2377,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>20301</v>
+        <v>8225</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.00641</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2392,11 +2392,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>46143</v>
+        <v>8081</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.00616</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2407,11 +2407,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>22218</v>
+        <v>7195</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.00584</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2422,11 +2422,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1134</v>
+        <v>7078</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.00547</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2437,11 +2437,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>38915</v>
+        <v>6919</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.00501</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1904</v>
+        <v>6577</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.00480</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2467,11 +2467,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>17340</v>
+        <v>6505</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.00475</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2482,11 +2482,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>37419</v>
+        <v>6488</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.00460</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2497,11 +2497,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>581</v>
+        <v>6457</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.00460</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2512,11 +2512,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>18449</v>
+        <v>5851</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.00445</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2527,11 +2527,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>15146</v>
+        <v>5778</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.00442</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2542,11 +2542,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>15035</v>
+        <v>5743</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.00442</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2557,11 +2557,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>42222</v>
+        <v>5624</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.00439</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2572,11 +2572,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>39778</v>
+        <v>5318</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.00439</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2587,11 +2587,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>826</v>
+        <v>5164</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.00436</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2602,11 +2602,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>54808</v>
+        <v>4900</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.00435</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2617,11 +2617,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>26706</v>
+        <v>4688</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.00435</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2632,11 +2632,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>15191</v>
+        <v>4676</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.00420</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2647,11 +2647,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>15182</v>
+        <v>4580</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.00420</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2662,11 +2662,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>44241</v>
+        <v>4301</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.00418</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2677,11 +2677,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>8707</v>
+        <v>4192</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.00413</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2692,11 +2692,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>52937</v>
+        <v>4153</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.00395</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2707,11 +2707,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>45387</v>
+        <v>3999</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.00388</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2722,11 +2722,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>44014</v>
+        <v>3816</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.00388</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2737,11 +2737,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>15181</v>
+        <v>3749</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.00377</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2752,11 +2752,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>18673</v>
+        <v>2974</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.00367</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2767,11 +2767,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>32989</v>
+        <v>2775</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.00366</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2782,11 +2782,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>36309</v>
+        <v>2710</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.00360</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2797,11 +2797,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>46601</v>
+        <v>2409</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.00341</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2812,11 +2812,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>21641</v>
+        <v>2381</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.00341</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2827,11 +2827,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>53412</v>
+        <v>2186</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.00339</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2842,11 +2842,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>25367</v>
+        <v>2176</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.00339</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2857,11 +2857,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>42183</v>
+        <v>2083</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.00323</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2872,11 +2872,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>36545</v>
+        <v>2065</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.00319</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2887,11 +2887,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>85235</v>
+        <v>1951</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.00317</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2902,11 +2902,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>67552</v>
+        <v>1699</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.00317</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2917,11 +2917,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>59428</v>
+        <v>1688</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.00317</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2932,11 +2932,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>31322</v>
+        <v>1565</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.00317</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2947,11 +2947,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>27483</v>
+        <v>1397</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.00317</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2962,11 +2962,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>9603</v>
+        <v>1388</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.00317</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2977,11 +2977,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>26141</v>
+        <v>1347</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.00306</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -2992,11 +2992,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>17871</v>
+        <v>1294</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.00297</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>43574</v>
+        <v>1268</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.00294</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3022,11 +3022,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>15316</v>
+        <v>1252</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.00283</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3037,11 +3037,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1709</v>
+        <v>1155</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.00272</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3052,11 +3052,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>38781</v>
+        <v>1121</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.00262</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3067,11 +3067,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>17859</v>
+        <v>1120</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.00260</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3082,11 +3082,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>15419</v>
+        <v>976</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.00259</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3097,11 +3097,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>296</v>
+        <v>905</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.00259</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3112,11 +3112,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>62294</v>
+        <v>796</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.00251</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3127,11 +3127,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>51119</v>
+        <v>755</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.00251</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3142,11 +3142,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>35057</v>
+        <v>696</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.00251</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3157,11 +3157,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>22709</v>
+        <v>659</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.00251</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3172,11 +3172,11 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>6269</v>
+        <v>633</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.00251</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3187,11 +3187,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>5580</v>
+        <v>626</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.00251</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3202,11 +3202,11 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>28169</v>
+        <v>596</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.00249</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3217,11 +3217,11 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>17262</v>
+        <v>579</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.00246</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3232,11 +3232,11 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>11614</v>
+        <v>495</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.00241</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3247,11 +3247,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>38297</v>
+        <v>474</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.00183</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3262,11 +3262,11 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>15183</v>
+        <v>315</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.00164</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3277,11 +3277,11 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>17468</v>
+        <v>303</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.00157</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3292,11 +3292,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>69196</v>
+        <v>263</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.00151</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3307,11 +3307,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>22705</v>
+        <v>253</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.00149</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3322,11 +3322,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1629</v>
+        <v>238</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.00149</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3337,11 +3337,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>569</v>
+        <v>216</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.00149</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3352,11 +3352,11 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>10003</v>
+        <v>155</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.00143</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3367,11 +3367,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>66367</v>
+        <v>129</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.00142</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3382,11 +3382,11 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>26825</v>
+        <v>122</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.00142</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3397,11 +3397,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>15203</v>
+        <v>104</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.00142</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3412,11 +3412,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>15210</v>
+        <v>100</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.00138</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3427,11 +3427,11 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4676</v>
+        <v>94</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.00138</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3442,11 +3442,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>38891</v>
+        <v>74</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.00137</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3457,11 +3457,11 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>62190</v>
+        <v>72</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.00135</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3472,11 +3472,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>20938</v>
+        <v>70</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.00132</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3487,11 +3487,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>30960</v>
+        <v>66</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.00120</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3502,11 +3502,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4282</v>
+        <v>62</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.00118</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3517,11 +3517,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>45139</v>
+        <v>28</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.00115</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3532,11 +3532,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>39291</v>
+        <v>27</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.00115</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3547,11 +3547,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>39008</v>
+        <v>19</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.00115</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3562,11 +3562,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>38958</v>
+        <v>12</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.00115</t>
+          <t>0.06584</t>
         </is>
       </c>
     </row>
@@ -3577,11 +3577,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>38689</v>
+        <v>826</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.00115</t>
+          <t>0.03276</t>
         </is>
       </c>
     </row>
@@ -3592,11 +3592,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>38688</v>
+        <v>329</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.00115</t>
+          <t>0.03253</t>
         </is>
       </c>
     </row>
@@ -3607,11 +3607,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>38536</v>
+        <v>1525</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.00115</t>
+          <t>0.02831</t>
         </is>
       </c>
     </row>
@@ -3622,11 +3622,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>54304</v>
+        <v>5701</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.00114</t>
+          <t>0.02799</t>
         </is>
       </c>
     </row>
@@ -3637,11 +3637,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>30441</v>
+        <v>6044</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.00114</t>
+          <t>0.02610</t>
         </is>
       </c>
     </row>
@@ -3652,11 +3652,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>26963</v>
+        <v>7655</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.00114</t>
+          <t>0.02494</t>
         </is>
       </c>
     </row>
@@ -3667,11 +3667,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2325</v>
+        <v>11886</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.00114</t>
+          <t>0.02466</t>
         </is>
       </c>
     </row>
@@ -3682,11 +3682,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>70967</v>
+        <v>4376</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02442</t>
         </is>
       </c>
     </row>
@@ -3697,11 +3697,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>49868</v>
+        <v>1249</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02394</t>
         </is>
       </c>
     </row>
@@ -3712,11 +3712,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>49351</v>
+        <v>448</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02287</t>
         </is>
       </c>
     </row>
@@ -3727,11 +3727,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>47488</v>
+        <v>9227</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02268</t>
         </is>
       </c>
     </row>
@@ -3742,11 +3742,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>46452</v>
+        <v>33</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02143</t>
         </is>
       </c>
     </row>
@@ -3757,11 +3757,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>39079</v>
+        <v>3599</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02140</t>
         </is>
       </c>
     </row>
@@ -3772,11 +3772,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>39007</v>
+        <v>2950</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02082</t>
         </is>
       </c>
     </row>
@@ -3787,11 +3787,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>38962</v>
+        <v>27074</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3802,11 +3802,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>38905</v>
+        <v>22912</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3817,11 +3817,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>38884</v>
+        <v>19640</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3832,11 +3832,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>26775</v>
+        <v>19001</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3847,11 +3847,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3452</v>
+        <v>16102</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3862,11 +3862,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2396</v>
+        <v>13371</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.00113</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3877,11 +3877,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>524</v>
+        <v>8548</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.00112</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3892,11 +3892,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>27571</v>
+        <v>3535</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.00110</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3907,11 +3907,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>65007</v>
+        <v>3367</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.00106</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3922,11 +3922,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>29206</v>
+        <v>3062</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.00106</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3937,11 +3937,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>17928</v>
+        <v>2085</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.00104</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3952,11 +3952,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>17882</v>
+        <v>1950</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.00104</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3967,11 +3967,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3003</v>
+        <v>1831</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.00104</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3982,11 +3982,11 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>63000</v>
+        <v>527</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.00103</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -3997,11 +3997,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>61641</v>
+        <v>98</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.00103</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -4012,11 +4012,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>37173</v>
+        <v>88</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.00103</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -4027,11 +4027,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>85007</v>
+        <v>16</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.00099</t>
+          <t>0.02073</t>
         </is>
       </c>
     </row>
@@ -4042,11 +4042,11 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>22131</v>
+        <v>813</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.00099</t>
+          <t>0.01867</t>
         </is>
       </c>
     </row>
@@ -4057,11 +4057,11 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>48943</v>
+        <v>1428</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.00096</t>
+          <t>0.01797</t>
         </is>
       </c>
     </row>
@@ -4072,11 +4072,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>37991</v>
+        <v>5544</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.00091</t>
+          <t>0.01608</t>
         </is>
       </c>
     </row>
@@ -4087,11 +4087,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>8160</v>
+        <v>52</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.00091</t>
+          <t>0.01608</t>
         </is>
       </c>
     </row>
@@ -4102,11 +4102,11 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2642</v>
+        <v>2268</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.00091</t>
+          <t>0.01564</t>
         </is>
       </c>
     </row>
@@ -4117,11 +4117,11 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>21956</v>
+        <v>68</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.00089</t>
+          <t>0.01522</t>
         </is>
       </c>
     </row>
@@ -4132,11 +4132,11 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>18647</v>
+        <v>61393</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.00089</t>
+          <t>0.01491</t>
         </is>
       </c>
     </row>
@@ -4147,11 +4147,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>15961</v>
+        <v>3362</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.00089</t>
+          <t>0.01491</t>
         </is>
       </c>
     </row>
@@ -4162,11 +4162,11 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>46541</v>
+        <v>26426</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.00088</t>
+          <t>0.01414</t>
         </is>
       </c>
     </row>
@@ -4177,11 +4177,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>37799</v>
+        <v>4487</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.00083</t>
+          <t>0.01414</t>
         </is>
       </c>
     </row>
@@ -4192,11 +4192,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>870</v>
+        <v>4474</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.00083</t>
+          <t>0.01414</t>
         </is>
       </c>
     </row>
@@ -4207,11 +4207,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>51432</v>
+        <v>3743</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.00076</t>
+          <t>0.01414</t>
         </is>
       </c>
     </row>
@@ -4222,11 +4222,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>50360</v>
+        <v>2859</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.00076</t>
+          <t>0.01414</t>
         </is>
       </c>
     </row>
@@ -4237,11 +4237,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>49998</v>
+        <v>1026</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.00076</t>
+          <t>0.01414</t>
         </is>
       </c>
     </row>
@@ -4252,11 +4252,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>61599</v>
+        <v>792</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.00074</t>
+          <t>0.01414</t>
         </is>
       </c>
     </row>
@@ -4267,11 +4267,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>27344</v>
+        <v>676</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.00073</t>
+          <t>0.01414</t>
         </is>
       </c>
     </row>
@@ -4282,11 +4282,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>19842</v>
+        <v>574</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.00072</t>
+          <t>0.01414</t>
         </is>
       </c>
     </row>
@@ -4297,11 +4297,11 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>69365</v>
+        <v>3464</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.00070</t>
+          <t>0.01324</t>
         </is>
       </c>
     </row>
@@ -4312,11 +4312,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>24912</v>
+        <v>2545</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.00065</t>
+          <t>0.01228</t>
         </is>
       </c>
     </row>
@@ -4327,11 +4327,11 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>75424</v>
+        <v>8160</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.00050</t>
+          <t>0.01142</t>
         </is>
       </c>
     </row>
@@ -4342,11 +4342,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>47695</v>
+        <v>3462</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.00050</t>
+          <t>0.01135</t>
         </is>
       </c>
     </row>
@@ -4357,11 +4357,11 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>31732</v>
+        <v>41</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.00050</t>
+          <t>0.01135</t>
         </is>
       </c>
     </row>
@@ -4372,11 +4372,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>79575</v>
+        <v>1169</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.00048</t>
+          <t>0.01102</t>
         </is>
       </c>
     </row>
@@ -4387,11 +4387,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>52104</v>
+        <v>8121</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.00045</t>
+          <t>0.01048</t>
         </is>
       </c>
     </row>
@@ -4402,11 +4402,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>77616</v>
+        <v>8601</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.01045</t>
         </is>
       </c>
     </row>
@@ -4417,11 +4417,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>75401</v>
+        <v>7919</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.01033</t>
         </is>
       </c>
     </row>
@@ -4432,11 +4432,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>45667</v>
+        <v>4985</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.01033</t>
         </is>
       </c>
     </row>
@@ -4447,11 +4447,11 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>40093</v>
+        <v>6080</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.01007</t>
         </is>
       </c>
     </row>
@@ -4462,11 +4462,11 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>32094</v>
+        <v>9019</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.00997</t>
         </is>
       </c>
     </row>
@@ -4477,11 +4477,11 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>40416</v>
+        <v>2642</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.00042</t>
+          <t>0.00995</t>
         </is>
       </c>
     </row>
@@ -4492,11 +4492,11 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>2518</v>
+        <v>10062</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.00042</t>
+          <t>0.00986</t>
         </is>
       </c>
     </row>
@@ -4507,11 +4507,11 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>30511</v>
+        <v>5942</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.00039</t>
+          <t>0.00986</t>
         </is>
       </c>
     </row>
@@ -4522,11 +4522,11 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>329</v>
+        <v>12075</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.00027</t>
+          <t>0.00976</t>
         </is>
       </c>
     </row>
@@ -4537,11 +4537,11 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>35765</v>
+        <v>7927</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.00024</t>
+          <t>0.00947</t>
         </is>
       </c>
     </row>
@@ -4552,11 +4552,11 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>80203</v>
+        <v>6079</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.00023</t>
+          <t>0.00944</t>
         </is>
       </c>
     </row>
@@ -4567,11 +4567,11 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>71343</v>
+        <v>5826</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.00023</t>
+          <t>0.00938</t>
         </is>
       </c>
     </row>
@@ -4582,11 +4582,11 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>45146</v>
+        <v>245</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.00023</t>
+          <t>0.00917</t>
         </is>
       </c>
     </row>
@@ -4597,11 +4597,11 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>64690</v>
+        <v>11912</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.00022</t>
+          <t>0.00900</t>
         </is>
       </c>
     </row>
@@ -4612,11 +4612,11 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>62506</v>
+        <v>12192</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.00022</t>
+          <t>0.00888</t>
         </is>
       </c>
     </row>
@@ -4627,11 +4627,11 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>47378</v>
+        <v>10377</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.00022</t>
+          <t>0.00884</t>
         </is>
       </c>
     </row>
@@ -4642,11 +4642,11 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2202</v>
+        <v>6922</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.00021</t>
+          <t>0.00879</t>
         </is>
       </c>
     </row>
@@ -4657,11 +4657,11 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>61811</v>
+        <v>4787</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.00877</t>
         </is>
       </c>
     </row>
@@ -4672,11 +4672,11 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>53077</v>
+        <v>9550</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.00876</t>
         </is>
       </c>
     </row>
@@ -4687,11 +4687,11 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>46355</v>
+        <v>5712</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.00876</t>
         </is>
       </c>
     </row>
@@ -4702,11 +4702,11 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>41569</v>
+        <v>7662</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.00874</t>
         </is>
       </c>
     </row>
@@ -4717,11 +4717,11 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>68505</v>
+        <v>7514</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.00873</t>
         </is>
       </c>
     </row>
@@ -4732,11 +4732,11 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>48542</v>
+        <v>205</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.00873</t>
         </is>
       </c>
     </row>
@@ -4747,11 +4747,11 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>27605</v>
+        <v>12298</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.00871</t>
         </is>
       </c>
     </row>
@@ -4762,11 +4762,11 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>41965</v>
+        <v>6134</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.00016</t>
+          <t>0.00871</t>
         </is>
       </c>
     </row>
@@ -4777,11 +4777,11 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>6135</v>
+        <v>1907</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.00016</t>
+          <t>0.00870</t>
         </is>
       </c>
     </row>
@@ -4792,11 +4792,11 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>66773</v>
+        <v>1564</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.00015</t>
+          <t>0.00855</t>
         </is>
       </c>
     </row>
@@ -4807,11 +4807,11 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>57639</v>
+        <v>6124</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.00015</t>
+          <t>0.00852</t>
         </is>
       </c>
     </row>
@@ -4822,11 +4822,11 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>61615</v>
+        <v>6125</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.00014</t>
+          <t>0.00850</t>
         </is>
       </c>
     </row>
@@ -4837,11 +4837,11 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>60791</v>
+        <v>8091</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.00014</t>
+          <t>0.00846</t>
         </is>
       </c>
     </row>
@@ -4852,11 +4852,11 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>58855</v>
+        <v>7422</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.00014</t>
+          <t>0.00846</t>
         </is>
       </c>
     </row>
@@ -4867,11 +4867,11 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>40412</v>
+        <v>8824</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.00014</t>
+          <t>0.00844</t>
         </is>
       </c>
     </row>
@@ -4882,11 +4882,11 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>64680</v>
+        <v>5565</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.00012</t>
+          <t>0.00841</t>
         </is>
       </c>
     </row>
@@ -4897,11 +4897,11 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>18453</v>
+        <v>454</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.00012</t>
+          <t>0.00840</t>
         </is>
       </c>
     </row>
@@ -4912,11 +4912,11 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>21505</v>
+        <v>246</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.00011</t>
+          <t>0.00840</t>
         </is>
       </c>
     </row>
@@ -4927,11 +4927,11 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>46502</v>
+        <v>12097</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.00010</t>
+          <t>0.00834</t>
         </is>
       </c>
     </row>
@@ -4942,11 +4942,11 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>22874</v>
+        <v>12068</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.00009</t>
+          <t>0.00826</t>
         </is>
       </c>
     </row>
@@ -4957,11 +4957,11 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>19299</v>
+        <v>6798</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.00009</t>
+          <t>0.00825</t>
         </is>
       </c>
     </row>
@@ -4972,11 +4972,11 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>27311</v>
+        <v>49</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.00008</t>
+          <t>0.00822</t>
         </is>
       </c>
     </row>
@@ -4987,11 +4987,11 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>59466</v>
+        <v>6719</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.00006</t>
+          <t>0.00820</t>
         </is>
       </c>
     </row>
@@ -5002,11 +5002,11 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>55372</v>
+        <v>10258</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.00006</t>
+          <t>0.00818</t>
         </is>
       </c>
     </row>
@@ -5017,11 +5017,11 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>53541</v>
+        <v>7077</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.00006</t>
+          <t>0.00813</t>
         </is>
       </c>
     </row>
@@ -5032,11 +5032,11 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>53309</v>
+        <v>26706</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.00006</t>
+          <t>0.00811</t>
         </is>
       </c>
     </row>
@@ -5047,11 +5047,11 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>43458</v>
+        <v>2501</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.00006</t>
+          <t>0.00811</t>
         </is>
       </c>
     </row>
@@ -5062,11 +5062,11 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>33121</v>
+        <v>4423</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.00006</t>
+          <t>0.00789</t>
         </is>
       </c>
     </row>
@@ -5077,11 +5077,11 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>24999</v>
+        <v>17</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.00006</t>
+          <t>0.00780</t>
         </is>
       </c>
     </row>
@@ -5092,11 +5092,11 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>20450</v>
+        <v>6808</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.00006</t>
+          <t>0.00748</t>
         </is>
       </c>
     </row>
@@ -5107,11 +5107,11 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>20418</v>
+        <v>6352</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.00006</t>
+          <t>0.00748</t>
         </is>
       </c>
     </row>
@@ -5122,11 +5122,11 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>31168</v>
+        <v>9567</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.00004</t>
+          <t>0.00737</t>
         </is>
       </c>
     </row>
@@ -5137,11 +5137,11 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>31140</v>
+        <v>12808</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.00004</t>
+          <t>0.00724</t>
         </is>
       </c>
     </row>
@@ -5152,11 +5152,11 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>27913</v>
+        <v>17092</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.00004</t>
+          <t>0.00716</t>
         </is>
       </c>
     </row>
@@ -5167,11 +5167,11 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>74547</v>
+        <v>4861</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.00003</t>
+          <t>0.00716</t>
         </is>
       </c>
     </row>
@@ -5182,11 +5182,11 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>73851</v>
+        <v>1245</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.00003</t>
+          <t>0.00716</t>
         </is>
       </c>
     </row>
@@ -5197,11 +5197,11 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>67503</v>
+        <v>773</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.00003</t>
+          <t>0.00716</t>
         </is>
       </c>
     </row>
@@ -5212,11 +5212,11 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>63269</v>
+        <v>7557</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.00003</t>
+          <t>0.00709</t>
         </is>
       </c>
     </row>
@@ -5227,11 +5227,11 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>55635</v>
+        <v>8010</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.00003</t>
+          <t>0.00704</t>
         </is>
       </c>
     </row>
@@ -5242,11 +5242,11 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>47342</v>
+        <v>9070</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.00003</t>
+          <t>0.00702</t>
         </is>
       </c>
     </row>
@@ -5257,11 +5257,11 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>42108</v>
+        <v>2144</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.00003</t>
+          <t>0.00702</t>
         </is>
       </c>
     </row>
@@ -5272,11 +5272,11 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>26186</v>
+        <v>1109</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.00003</t>
+          <t>0.00702</t>
         </is>
       </c>
     </row>
@@ -5287,11 +5287,11 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>38957</v>
+        <v>639</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.00002</t>
+          <t>0.00702</t>
         </is>
       </c>
     </row>
@@ -5302,11 +5302,11 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>6044</v>
+        <v>268</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.00002</t>
+          <t>0.00702</t>
         </is>
       </c>
     </row>
@@ -5317,11 +5317,11 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>72134</v>
+        <v>10808</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00701</t>
         </is>
       </c>
     </row>
@@ -5332,11 +5332,11 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>69925</v>
+        <v>10017</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00698</t>
         </is>
       </c>
     </row>
@@ -5347,11 +5347,11 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>61878</v>
+        <v>14337</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00697</t>
         </is>
       </c>
     </row>
@@ -5362,11 +5362,11 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>60840</v>
+        <v>4803</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00692</t>
         </is>
       </c>
     </row>
@@ -5377,11 +5377,11 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>59356</v>
+        <v>9449</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00686</t>
         </is>
       </c>
     </row>
@@ -5392,11 +5392,11 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>51880</v>
+        <v>4050</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00685</t>
         </is>
       </c>
     </row>
@@ -5407,11 +5407,11 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>44991</v>
+        <v>3719</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00680</t>
         </is>
       </c>
     </row>
@@ -5422,11 +5422,11 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>35426</v>
+        <v>1609</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00680</t>
         </is>
       </c>
     </row>
@@ -5437,11 +5437,11 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>35307</v>
+        <v>4982</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00678</t>
         </is>
       </c>
     </row>
@@ -5452,11 +5452,11 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>26915</v>
+        <v>1701</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00678</t>
         </is>
       </c>
     </row>
@@ -5467,11 +5467,11 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>10104</v>
+        <v>524</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00678</t>
         </is>
       </c>
     </row>
@@ -5482,11 +5482,11 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>7931</v>
+        <v>73</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00678</t>
         </is>
       </c>
     </row>
@@ -5497,11 +5497,11 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>73728</v>
+        <v>5987</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00674</t>
         </is>
       </c>
     </row>
@@ -5512,11 +5512,11 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>67734</v>
+        <v>5950</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00662</t>
         </is>
       </c>
     </row>
@@ -5527,11 +5527,11 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>67539</v>
+        <v>11954</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00661</t>
         </is>
       </c>
     </row>
@@ -5542,11 +5542,11 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>67164</v>
+        <v>11003</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00660</t>
         </is>
       </c>
     </row>
@@ -5557,11 +5557,11 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>66733</v>
+        <v>7428</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00657</t>
         </is>
       </c>
     </row>
@@ -5572,11 +5572,11 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>66098</v>
+        <v>12417</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00656</t>
         </is>
       </c>
     </row>
@@ -5587,11 +5587,11 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>63563</v>
+        <v>9923</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00650</t>
         </is>
       </c>
     </row>
@@ -5602,11 +5602,11 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>60753</v>
+        <v>8561</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00636</t>
         </is>
       </c>
     </row>
@@ -5617,11 +5617,11 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>58515</v>
+        <v>1546</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00632</t>
         </is>
       </c>
     </row>
@@ -5632,11 +5632,11 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>57968</v>
+        <v>293</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00632</t>
         </is>
       </c>
     </row>
@@ -5647,11 +5647,11 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>56986</v>
+        <v>86</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00632</t>
         </is>
       </c>
     </row>
@@ -5662,11 +5662,11 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>55407</v>
+        <v>6</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00632</t>
         </is>
       </c>
     </row>
@@ -5677,11 +5677,11 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>54015</v>
+        <v>9620</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00631</t>
         </is>
       </c>
     </row>
@@ -5692,11 +5692,11 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>53891</v>
+        <v>7096</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00620</t>
         </is>
       </c>
     </row>
@@ -5707,11 +5707,11 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>53285</v>
+        <v>8344</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00619</t>
         </is>
       </c>
     </row>
@@ -5722,11 +5722,11 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>52653</v>
+        <v>13417</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00618</t>
         </is>
       </c>
     </row>
@@ -5737,11 +5737,11 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>51495</v>
+        <v>6026</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00618</t>
         </is>
       </c>
     </row>
@@ -5752,11 +5752,11 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>50957</v>
+        <v>3602</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00618</t>
         </is>
       </c>
     </row>
@@ -5767,11 +5767,11 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>49968</v>
+        <v>2153</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00618</t>
         </is>
       </c>
     </row>
@@ -5782,11 +5782,11 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>48914</v>
+        <v>1722</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00618</t>
         </is>
       </c>
     </row>
@@ -5797,11 +5797,11 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>47448</v>
+        <v>770</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00618</t>
         </is>
       </c>
     </row>
@@ -5812,11 +5812,11 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>45968</v>
+        <v>13889</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00600</t>
         </is>
       </c>
     </row>
@@ -5827,11 +5827,11 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>44562</v>
+        <v>11694</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00598</t>
         </is>
       </c>
     </row>
@@ -5842,11 +5842,11 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>44553</v>
+        <v>9413</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00598</t>
         </is>
       </c>
     </row>
@@ -5857,11 +5857,11 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>44542</v>
+        <v>9236</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00598</t>
         </is>
       </c>
     </row>
@@ -5872,11 +5872,11 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>44491</v>
+        <v>8020</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00598</t>
         </is>
       </c>
     </row>
@@ -5887,11 +5887,11 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>44470</v>
+        <v>12717</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00595</t>
         </is>
       </c>
     </row>
@@ -5902,11 +5902,11 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>43864</v>
+        <v>6115</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00595</t>
         </is>
       </c>
     </row>
@@ -5917,11 +5917,11 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>42198</v>
+        <v>6131</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00591</t>
         </is>
       </c>
     </row>
@@ -5932,11 +5932,11 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>41625</v>
+        <v>13212</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00580</t>
         </is>
       </c>
     </row>
@@ -5947,11 +5947,11 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>40563</v>
+        <v>9060</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00580</t>
         </is>
       </c>
     </row>
@@ -5962,11 +5962,11 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>40515</v>
+        <v>4197</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00580</t>
         </is>
       </c>
     </row>
@@ -5977,11 +5977,11 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>37190</v>
+        <v>15740</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00575</t>
         </is>
       </c>
     </row>
@@ -5992,11 +5992,11 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>34928</v>
+        <v>10422</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00575</t>
         </is>
       </c>
     </row>
@@ -6007,11 +6007,11 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>32655</v>
+        <v>10095</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00575</t>
         </is>
       </c>
     </row>
@@ -6022,11 +6022,11 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>30616</v>
+        <v>9673</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00575</t>
         </is>
       </c>
     </row>
@@ -6037,11 +6037,11 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>26180</v>
+        <v>8842</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00575</t>
         </is>
       </c>
     </row>
@@ -6052,11 +6052,11 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>12633</v>
+        <v>1075</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00575</t>
         </is>
       </c>
     </row>
@@ -6067,11 +6067,11 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>11171</v>
+        <v>679</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00567</t>
         </is>
       </c>
     </row>
@@ -6082,11 +6082,11 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>7798</v>
+        <v>15457</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.00000</t>
+          <t>0.00563</t>
         </is>
       </c>
     </row>
@@ -6097,9 +6097,2589 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>7067</v>
+        <v>464</v>
       </c>
       <c r="C384" t="inlineStr">
+        <is>
+          <t>0.00561</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>10262</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>0.00560</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>7253</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>0.00560</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>7241</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>0.00560</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>7055</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>0.00560</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>3448</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>0.00560</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>6078</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>0.00551</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>5571</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>0.00529</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>0.00503</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>10099</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>6830</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>5586</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>2235</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>462</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>460</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>457</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>455</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>115</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>0.00493</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>8130</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>0.00491</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>0.00490</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>9350</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>0.00489</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>0.00489</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>650</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>0.00489</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>5892</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>0.00487</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>967</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>0.00473</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>4456</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>0.00465</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>2124</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>0.00465</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>8372</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>0.00464</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>3716</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>0.00464</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>2389</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>0.00464</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>11801</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>0.00462</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>14967</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>0.00460</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>8015</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>0.00460</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>16702</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>0.00459</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>9374</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>0.00457</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>6586</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>0.00457</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>5279</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>0.00457</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>3401</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>0.00457</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1633</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>0.00457</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>109</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>0.00449</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>7972</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>0.00440</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>882</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>0.00439</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>11670</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>8469</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>8243</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>7638</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>6673</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>5470</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>5257</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>4804</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>4440</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>4312</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>3942</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>2557</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>459</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>0.00428</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>0.00417</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>3585</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>0.00413</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>12789</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>0.00405</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>12307</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>0.00402</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>9299</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>0.00390</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>6133</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>0.00383</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>10290</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>0.00376</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>279</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>0.00375</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>141</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>0.00375</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>6320</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>0.00373</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>2737</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>0.00373</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>870</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>0.00373</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>83</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>0.00373</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>6350</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>0.00369</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>10176</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>0.00360</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>5548</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>0.00359</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>4294</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>0.00359</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>9649</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>0.00356</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>6135</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>0.00353</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>7098</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>0.00328</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>0.00328</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>5947</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>0.00321</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>7435</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>0.00302</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>3155</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>0.00302</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1256</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>0.00302</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>9338</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>0.00301</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>17859</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>0.00291</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>17362</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>0.00291</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>16422</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>0.00291</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>14746</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>0.00291</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>14610</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>0.00291</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>14514</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>0.00291</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>9072</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>0.00291</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>3721</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>0.00291</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>2584</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>0.00291</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>12755</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>0.00289</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>24231</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>0.00286</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>8979</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>0.00286</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>10141</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>0.00281</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>27773</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>0.00269</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>13858</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>0.00267</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>4010</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>0.00267</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>0.00264</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>2624</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>0.00264</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>339</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>0.00264</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>10461</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>0.00258</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>258</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>0.00253</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>12570</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>0.00247</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>2119</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>0.00243</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>17215</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>0.00233</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>6840</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>0.00233</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1337</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>0.00233</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>2325</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>0.00225</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>17229</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>0.00224</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>15537</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>0.00200</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>14145</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0.00199</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>11095</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0.00196</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>687</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>0.00196</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>13478</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>0.00193</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>9493</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0.00193</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>9660</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>0.00190</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>45146</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0.00186</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>14866</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>0.00186</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>20863</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0.00180</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>35638</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>0.00172</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>35307</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0.00172</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>16784</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0.00172</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>13790</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0.00172</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>10905</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0.00172</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>4807</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0.00172</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1148</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0.00172</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>13914</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0.00166</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>9817</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0.00163</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>10293</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0.00161</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>14865</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0.00160</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>13718</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0.00151</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>26657</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>4054</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>15037</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>0.00148</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>12634</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0.00148</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>10135</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>0.00146</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>8509</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>0.00146</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>7597</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>0.00146</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>710</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0.00144</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>13515</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>0.00140</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>9442</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>0.00138</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>14450</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>0.00132</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>11608</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>0.00132</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>3104</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>0.00132</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>548</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0.00132</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>37799</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>0.00124</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>19006</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0.00124</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>16122</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0.00124</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>13170</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>0.00124</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>6894</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>0.00123</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>12952</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0.00105</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>37190</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>0.00104</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>9264</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>0.00104</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>9777</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0.00095</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>2082</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>0.00081</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>17650</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>0.00071</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>16957</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>0.00069</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>15172</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>0.00069</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>11897</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0.00069</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0.00063</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>26163</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>0.00033</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>15098</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>0.00033</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>740</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0.00028</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>6462</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>0.00019</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>14048</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0.00005</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>5722</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>0.00003</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>29189</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>16750</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>9496</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>8162</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>14512</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>11074</v>
+      </c>
+      <c r="C556" t="inlineStr">
         <is>
           <t>0.00000</t>
         </is>
